--- a/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat_R1.xlsx
+++ b/Teaching/ProbabilityStatistics/results/Tabel_Prob_Stat_R1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Nume</t>
   </si>
@@ -36,45 +36,18 @@
     <t>BRADATAN DORIN</t>
   </si>
   <si>
-    <t>COCIUBA ANDREI-ALEXANDRU</t>
-  </si>
-  <si>
     <t>HOBANA MATEI-NICOLAE</t>
   </si>
   <si>
     <t>IACOB MIHAI VLADIMIR</t>
   </si>
   <si>
-    <t>MELEANCA IONUT ADRIAN</t>
-  </si>
-  <si>
     <t>NEMA DAN-CRISTIAN</t>
   </si>
   <si>
-    <t>NICULESCU BOGDAN-GABRIEL</t>
-  </si>
-  <si>
-    <t>OANTA MARIUS-LAURIAN</t>
-  </si>
-  <si>
-    <t>PANAIT IONUT-ALEXANDRU</t>
-  </si>
-  <si>
     <t>PAVEL EUSEBIU-ANDREI</t>
   </si>
   <si>
-    <t>PRUTEANU RAZVAN-GABRIEL</t>
-  </si>
-  <si>
-    <t>ARABADJI IGOR</t>
-  </si>
-  <si>
-    <t>CEAPRAZ TUDOR-GABRIEL</t>
-  </si>
-  <si>
-    <t>POPA JUSTINIAN-ROBERT</t>
-  </si>
-  <si>
     <t>PRICOP IONUT-RAZVAN</t>
   </si>
   <si>
@@ -84,45 +57,9 @@
     <t>ANGHEL DANIEL-VASILE</t>
   </si>
   <si>
-    <t>AVRAMICA ALEXANDRU-MARIAN</t>
-  </si>
-  <si>
-    <t>BOSTAN NICOLAE BOGDAN</t>
-  </si>
-  <si>
-    <t>GHIUR ALEXANDRU</t>
-  </si>
-  <si>
-    <t>LINTE COSMIN-BOGDAN</t>
-  </si>
-  <si>
-    <t>MARIN GEORGE-CLAUDIU</t>
-  </si>
-  <si>
     <t>MARIN FLORIN-CATALIN</t>
   </si>
   <si>
-    <t>SANDU BOGDAN ALEXANDRU</t>
-  </si>
-  <si>
-    <t>SCHEPP KARL-ANDREAS</t>
-  </si>
-  <si>
-    <t>TEODORESCU NICOLAE-SEBASTIAN</t>
-  </si>
-  <si>
-    <t>TOMA ALEXANDRU-SILVIU</t>
-  </si>
-  <si>
-    <t>BIRGAUANU STEFANA-IRINA</t>
-  </si>
-  <si>
-    <t>CHIPER MARIUS DANIEL</t>
-  </si>
-  <si>
-    <t>DEACONESCU ANA-MARIA-ELIZA</t>
-  </si>
-  <si>
     <t>NITA MIHAITA-ALIN</t>
   </si>
   <si>
@@ -132,21 +69,9 @@
     <t>PRIVANTU LIDIA-MIHAELA</t>
   </si>
   <si>
-    <t>SIMIONOV ALEXANDRU</t>
-  </si>
-  <si>
-    <t>TIPLEA COSMIN ALEXANDRU</t>
-  </si>
-  <si>
-    <t>VLADAU DENISA</t>
-  </si>
-  <si>
     <t>CIUCUR ANDREI</t>
   </si>
   <si>
-    <t>PÃŽRLOGEA MIHNEA-RAZVAN</t>
-  </si>
-  <si>
     <t>CURDUMAN IOAN-ANDREI</t>
   </si>
   <si>
@@ -154,6 +79,12 @@
   </si>
   <si>
     <t>POPESCU IULIAN-ALEXANDRU</t>
+  </si>
+  <si>
+    <t>PIRLOGEA MIHNEA-RAZVAN</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -471,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -500,6 +431,9 @@
       <c r="B2">
         <v>241</v>
       </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -508,6 +442,9 @@
       <c r="B3">
         <v>241</v>
       </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -516,6 +453,9 @@
       <c r="B4">
         <v>241</v>
       </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -524,6 +464,9 @@
       <c r="B5">
         <v>241</v>
       </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -532,6 +475,9 @@
       <c r="B6">
         <v>241</v>
       </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -540,13 +486,19 @@
       <c r="B7">
         <v>241</v>
       </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -554,283 +506,124 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>241</v>
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>244</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
       <c r="B19">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
         <v>244</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>244</v>
+      <c r="C19">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C43">
+  <sortState ref="A2:C19">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
